--- a/Doc/BusComing_赵吟斌_杨尚斌_张文佳_徐义金_孙岩/02_项目管理/05_项目日报/个人日报——赵吟斌.xlsx
+++ b/Doc/BusComing_赵吟斌_杨尚斌_张文佳_徐义金_孙岩/02_项目管理/05_项目日报/个人日报——赵吟斌.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\a 大学\android\BusComing_赵吟斌_杨尚斌_张文佳_徐义金_孙岩\02_项目管理\05_项目日报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kimi\Documents\GitHub\BusComing\Doc\BusComing_赵吟斌_杨尚斌_张文佳_徐义金_孙岩\02_项目管理\05_项目日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="个人日报7.4-7.8" sheetId="2" r:id="rId2"/>
     <sheet name="个人日报7.11-7.15" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="71">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +272,26 @@
   </si>
   <si>
     <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录状态sharedpreferences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录状态总体逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与数据库读取存储联系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +441,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -469,6 +490,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -478,37 +508,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -823,26 +856,26 @@
   <dimension ref="B1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="0.25" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="3.75" customHeight="1"/>
     <row r="2" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="2" t="s">
@@ -881,8 +914,8 @@
         <v>49</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="8" t="s">
-        <v>50</v>
+      <c r="G4" s="33" t="s">
+        <v>66</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -890,22 +923,38 @@
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D5" s="15">
+        <v>42566</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="D6" s="15">
+        <v>42573</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
   </sheetData>
@@ -938,101 +987,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="27">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="21" t="s">
+      <c r="E4" s="29"/>
+      <c r="F4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="24" t="s">
+      <c r="G4" s="27"/>
+      <c r="H4" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="21" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="24" t="s">
+      <c r="G5" s="27"/>
+      <c r="H5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="21" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="2:9" ht="24">
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="26"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1053,10 +1102,10 @@
       <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="4" t="s">
         <v>36</v>
       </c>
@@ -1077,10 +1126,10 @@
       <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="4" t="s">
         <v>37</v>
       </c>
@@ -1097,10 +1146,10 @@
       <c r="B11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="10" t="s">
         <v>46</v>
       </c>
@@ -1117,10 +1166,10 @@
       <c r="B12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="10" t="s">
         <v>40</v>
       </c>
@@ -1137,10 +1186,10 @@
       <c r="B13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="10" t="s">
         <v>51</v>
       </c>
@@ -1154,25 +1203,25 @@
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" spans="2:9" ht="24">
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="3" t="s">
         <v>19</v>
       </c>
@@ -1193,10 +1242,10 @@
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="18"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
@@ -1209,10 +1258,10 @@
       <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="18"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
@@ -1225,10 +1274,10 @@
       <c r="B18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="18"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
@@ -1241,10 +1290,10 @@
       <c r="B19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="18"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="1" t="s">
         <v>52</v>
       </c>
@@ -1259,10 +1308,10 @@
       <c r="B20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="18"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="1" t="s">
         <v>51</v>
       </c>
@@ -1275,6 +1324,25 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B7:I7"/>
@@ -1284,25 +1352,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1315,7 +1364,7 @@
   <dimension ref="B2:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1326,101 +1375,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="27">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="21" t="s">
+      <c r="E4" s="29"/>
+      <c r="F4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="24" t="s">
+      <c r="G4" s="27"/>
+      <c r="H4" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="21" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="24" t="s">
+      <c r="G5" s="27"/>
+      <c r="H5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="21" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="2:9" ht="24">
       <c r="B8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="26"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="12" t="s">
         <v>19</v>
       </c>
@@ -1437,14 +1486,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="24">
+    <row r="9" spans="2:9">
       <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="4" t="s">
         <v>57</v>
       </c>
@@ -1461,14 +1510,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="48">
+    <row r="10" spans="2:9" ht="24">
       <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="4" t="s">
         <v>61</v>
       </c>
@@ -1485,14 +1534,20 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" ht="24.75" customHeight="1">
       <c r="B11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
+      <c r="C11" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.6</v>
+      </c>
       <c r="G11" s="10">
         <v>6</v>
       </c>
@@ -1503,10 +1558,16 @@
       <c r="B12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="C12" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.4</v>
+      </c>
       <c r="G12" s="10">
         <v>6</v>
       </c>
@@ -1517,8 +1578,8 @@
       <c r="B13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1526,25 +1587,25 @@
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" spans="2:9" ht="24">
       <c r="B15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="12" t="s">
         <v>19</v>
       </c>
@@ -1565,10 +1626,10 @@
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="1" t="s">
         <v>64</v>
       </c>
@@ -1583,10 +1644,10 @@
       <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="27"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="1" t="s">
         <v>65</v>
       </c>
@@ -1601,8 +1662,8 @@
       <c r="B18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
@@ -1615,8 +1676,8 @@
       <c r="B19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
@@ -1629,8 +1690,369 @@
       <c r="B20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1">
+        <v>8</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:9" ht="27">
+      <c r="B2" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="27"/>
+      <c r="H4" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="2:9" ht="24">
+      <c r="B8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="24">
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="16">
+        <v>10</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="48">
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16">
+        <v>8</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10">
+        <v>6</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10">
+        <v>6</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="2:9" ht="24">
+      <c r="B15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
+        <v>8</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1">
+        <v>8</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1">

--- a/Doc/BusComing_赵吟斌_杨尚斌_张文佳_徐义金_孙岩/02_项目管理/05_项目日报/个人日报——赵吟斌.xlsx
+++ b/Doc/BusComing_赵吟斌_杨尚斌_张文佳_徐义金_孙岩/02_项目管理/05_项目日报/个人日报——赵吟斌.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14460" windowHeight="6210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14460" windowHeight="6210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="个人日报7.4-7.8" sheetId="2" r:id="rId2"/>
     <sheet name="个人日报7.11-7.15" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="个人日报7.18-7.22" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="79">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,19 +279,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>登录状态总体逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与数据库读取存储联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新设计线路查询页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页天气预报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页轮播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新线路查询页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页天气预报实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮播实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>登录状态sharedpreferences</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录状态总体逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与数据库读取存储联系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,6 +531,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -540,9 +575,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -867,15 +899,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="3.75" customHeight="1"/>
     <row r="2" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="2" t="s">
@@ -914,7 +946,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="19" t="s">
         <v>66</v>
       </c>
       <c r="H4" s="2"/>
@@ -987,101 +1019,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="27">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="27" t="s">
+      <c r="E4" s="30"/>
+      <c r="F4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="30" t="s">
+      <c r="G4" s="28"/>
+      <c r="H4" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="31"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="27" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="30" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="31"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="27" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="2:9" ht="24">
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1102,10 +1134,10 @@
       <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="4" t="s">
         <v>36</v>
       </c>
@@ -1126,10 +1158,10 @@
       <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="24"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="4" t="s">
         <v>37</v>
       </c>
@@ -1146,10 +1178,10 @@
       <c r="B11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="26"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="10" t="s">
         <v>46</v>
       </c>
@@ -1166,10 +1198,10 @@
       <c r="B12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="10" t="s">
         <v>40</v>
       </c>
@@ -1186,10 +1218,10 @@
       <c r="B13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="10" t="s">
         <v>51</v>
       </c>
@@ -1203,25 +1235,25 @@
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="2:9" ht="24">
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="3" t="s">
         <v>19</v>
       </c>
@@ -1242,10 +1274,10 @@
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="21"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
@@ -1258,10 +1290,10 @@
       <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="21"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
@@ -1274,10 +1306,10 @@
       <c r="B18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="21"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
@@ -1290,10 +1322,10 @@
       <c r="B19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="21"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="1" t="s">
         <v>52</v>
       </c>
@@ -1308,10 +1340,10 @@
       <c r="B20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="1" t="s">
         <v>51</v>
       </c>
@@ -1363,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1375,101 +1407,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="27">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="27" t="s">
+      <c r="E4" s="30"/>
+      <c r="F4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="30" t="s">
+      <c r="G4" s="28"/>
+      <c r="H4" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="31"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="27" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="30" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="31"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="27" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="2:9" ht="24">
       <c r="B8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
         <v>19</v>
       </c>
@@ -1490,10 +1522,10 @@
       <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="4" t="s">
         <v>57</v>
       </c>
@@ -1514,10 +1546,10 @@
       <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="24"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="4" t="s">
         <v>61</v>
       </c>
@@ -1538,12 +1570,12 @@
       <c r="B11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="26"/>
+      <c r="C11" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="27"/>
       <c r="E11" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="11">
         <v>0.6</v>
@@ -1558,12 +1590,12 @@
       <c r="B12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="26"/>
+      <c r="C12" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="27"/>
       <c r="E12" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="11">
         <v>0.4</v>
@@ -1578,8 +1610,8 @@
       <c r="B13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1587,25 +1619,25 @@
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="2:9" ht="24">
       <c r="B15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="12" t="s">
         <v>19</v>
       </c>
@@ -1626,10 +1658,10 @@
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="24"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="1" t="s">
         <v>64</v>
       </c>
@@ -1644,10 +1676,10 @@
       <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="24"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="1" t="s">
         <v>65</v>
       </c>
@@ -1662,8 +1694,8 @@
       <c r="B18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="21"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
@@ -1676,8 +1708,8 @@
       <c r="B19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="21"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
@@ -1690,8 +1722,8 @@
       <c r="B20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="21"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1">
@@ -1741,108 +1773,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="27">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="27" t="s">
+      <c r="E4" s="30"/>
+      <c r="F4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="30" t="s">
+      <c r="G4" s="28"/>
+      <c r="H4" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="31"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="27" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="30" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="31"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="27" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="2:9" ht="24">
       <c r="B8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="17" t="s">
         <v>19</v>
       </c>
@@ -1859,40 +1894,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="24">
+    <row r="9" spans="2:9">
       <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="24"/>
+      <c r="C9" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="25"/>
       <c r="E9" s="4" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F9" s="9">
         <v>1</v>
       </c>
       <c r="G9" s="16">
-        <v>10</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="48">
+        <v>8</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="2:9" ht="24">
       <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="24"/>
+      <c r="C10" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="25"/>
       <c r="E10" s="4" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F10" s="9">
         <v>1</v>
@@ -1900,23 +1931,25 @@
       <c r="G10" s="16">
         <v>8</v>
       </c>
-      <c r="H10" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>63</v>
-      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
+      <c r="C11" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
       <c r="G11" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -1925,12 +1958,16 @@
       <c r="B12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="27"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
       <c r="G12" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -1939,34 +1976,40 @@
       <c r="B13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
+      <c r="C13" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="27"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10">
+        <v>8</v>
+      </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="2:9" ht="24">
       <c r="B15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="17" t="s">
         <v>19</v>
       </c>
@@ -1987,12 +2030,12 @@
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="1" t="s">
-        <v>64</v>
+      <c r="C16" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
@@ -2001,16 +2044,16 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" ht="24">
       <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="1" t="s">
-        <v>65</v>
+      <c r="C17" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
@@ -2023,9 +2066,13 @@
       <c r="B18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
         <v>8</v>
@@ -2037,9 +2084,11 @@
       <c r="B19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="1"/>
+      <c r="C19" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
         <v>8</v>
@@ -2051,9 +2100,11 @@
       <c r="B20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="1"/>
+      <c r="C20" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1">
         <v>8</v>
@@ -2071,11 +2122,6 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
@@ -2085,6 +2131,11 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B4:C4"/>
@@ -2094,5 +2145,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>